--- a/output/Tables/Log linear/Modal shift/modalshift_tot_km_CO2_emit.xlsx
+++ b/output/Tables/Log linear/Modal shift/modalshift_tot_km_CO2_emit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ines/Documents/M2/ENS/Stage/Walking benefits/codes/walking/output/Tables/Log linear/Modal shift/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714474A7-1229-604F-A420-BB4AA73B723B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27150B8E-631C-DC4F-8793-C2D450929172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38240" yWindow="-5340" windowWidth="38080" windowHeight="23180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -648,7 +648,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
